--- a/Data/updated_index_auto.xlsx
+++ b/Data/updated_index_auto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richy\Documents\adhc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richy\Documents\Stock_Index\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A3770F-0C3A-44F0-A195-90135E7560C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF0C653-2F21-4037-8325-EE97DE34A5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C07705E1-BFE3-46FC-B9EE-22667ED85A52}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{C07705E1-BFE3-46FC-B9EE-22667ED85A52}"/>
   </bookViews>
   <sheets>
     <sheet name="ZZ1000" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -613,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400165C1-6DCE-43DD-A52B-273504C6AD27}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,7 +696,7 @@
         <v>45103</v>
       </c>
       <c r="B5" s="3">
-        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=17")</f>
+        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=19")</f>
         <v>6420.9726000000001</v>
       </c>
       <c r="C5" s="3">
@@ -1257,13 +1257,87 @@
         <v>45125</v>
       </c>
       <c r="B21" s="3">
-        <v>6516.56</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+        <v>6510.0340999999999</v>
+      </c>
+      <c r="C21" s="3">
+        <v>36.13909912109375</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2.3159999847412109</v>
+      </c>
+      <c r="E21" s="3">
+        <v>11996865300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>159965850727</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1.2962</v>
+      </c>
+      <c r="H21">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A21,252)</f>
+        <v>13</v>
+      </c>
+      <c r="I21">
+        <f>[1]!i_techanal_stagelow_num($B$2,A21,252)</f>
+        <v>20</v>
+      </c>
+      <c r="J21" s="4">
+        <f>100/C21 - Sheet4!B21</f>
+        <v>0.14088613197366007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B22" s="3">
+        <v>6492.3486999999996</v>
+      </c>
+      <c r="C22" s="3">
+        <v>36.047000885009766</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2.3106000423431396</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10913633500</v>
+      </c>
+      <c r="F22" s="3">
+        <v>141853309419</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.1791</v>
+      </c>
+      <c r="H22">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A22,252)</f>
+        <v>11</v>
+      </c>
+      <c r="I22">
+        <f>[1]!i_techanal_stagelow_num($B$2,A22,252)</f>
+        <v>31</v>
+      </c>
+      <c r="J22" s="4">
+        <f>100/C22 - Sheet4!B22</f>
+        <v>0.14775589493841235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B23" s="3">
+        <v>6408.7597999999998</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <v>12215096200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>155152822200</v>
+      </c>
+      <c r="G23" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1274,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90CDCFF-F25D-4B3E-9929-B90F98D638CE}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1361,7 +1435,7 @@
         <v>45103</v>
       </c>
       <c r="B5" s="3">
-        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=17")</f>
+        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=19")</f>
         <v>5887.0324000000001</v>
       </c>
       <c r="C5" s="3">
@@ -1922,13 +1996,87 @@
         <v>45125</v>
       </c>
       <c r="B21" s="3">
-        <v>6012.6895000000004</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+        <v>6001.7997999999998</v>
+      </c>
+      <c r="C21" s="3">
+        <v>23.089599609375</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.8220000267028809</v>
+      </c>
+      <c r="E21" s="3">
+        <v>8771991000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>121310187887</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.76090000000000002</v>
+      </c>
+      <c r="H21">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A21,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <f>[1]!i_techanal_stagelow_num($B$2,A21,252)</f>
+        <v>8</v>
+      </c>
+      <c r="J21" s="4">
+        <f>100/C21 - Sheet4!B21</f>
+        <v>1.7047542690985988</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5993.4125999999997</v>
+      </c>
+      <c r="C22" s="3">
+        <v>23.080600738525391</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.8207999467849731</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7779103400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>104054562581</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.67469999999999997</v>
+      </c>
+      <c r="H22">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A22,252)</f>
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <f>[1]!i_techanal_stagelow_num($B$2,A22,252)</f>
+        <v>14</v>
+      </c>
+      <c r="J22" s="4">
+        <f>100/C22 - Sheet4!B22</f>
+        <v>1.7062428602477078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5925.4843000000001</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <v>9119536800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>123684933500</v>
+      </c>
+      <c r="G23" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1941,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E965FD-9AE0-4478-8833-F344FEC72F94}">
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2022,7 +2170,7 @@
         <v>45103</v>
       </c>
       <c r="B5" s="3">
-        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=17")</f>
+        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=19")</f>
         <v>3809.6961999999999</v>
       </c>
       <c r="C5" s="3">
@@ -2583,32 +2731,86 @@
         <v>45125</v>
       </c>
       <c r="B21" s="3">
-        <v>3867.1749</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="J21" s="4"/>
+        <v>3854.9393</v>
+      </c>
+      <c r="C21" s="3">
+        <v>11.659000396728516</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.3571000099182129</v>
+      </c>
+      <c r="E21" s="3">
+        <v>9143861500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>167104315117</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H21">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A21,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f>[1]!i_techanal_stagelow_num($B$2,A21,252)</f>
+        <v>4</v>
+      </c>
+      <c r="J21" s="4">
+        <f>100/C21 - Sheet4!B21</f>
+        <v>5.9508646365240478</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3850.8663000000001</v>
+      </c>
+      <c r="C22" s="3">
+        <v>11.659500122070313</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.357699990272522</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7958570000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>151311481030</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.2611</v>
+      </c>
+      <c r="H22">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A22,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f>[1]!i_techanal_stagelow_num($B$2,A22,252)</f>
+        <v>9</v>
+      </c>
+      <c r="J22" s="4">
+        <f>100/C22 - Sheet4!B22</f>
+        <v>5.9502970241468258</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3823.6945999999998</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="3">
+        <v>9204207600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>174320872100</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="J23" s="4"/>
     </row>
@@ -3774,7 +3976,7 @@
         <v>45103</v>
       </c>
       <c r="B5" s="3">
-        <f>[1]!WSD(B4,B2:B2,"2023-06-25","","TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=1;rows=16")</f>
+        <f>[1]!WSD(B4,B2:B2,"2023-06-25","","TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=1;rows=18")</f>
         <v>2.6638000000000002</v>
       </c>
     </row>
@@ -3899,12 +4101,20 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2.6261999999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2.6263999999999998</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>

--- a/Data/updated_index_auto.xlsx
+++ b/Data/updated_index_auto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richy\Documents\Stock_Index\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF0C653-2F21-4037-8325-EE97DE34A5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A119EB-DC11-4C20-BF5B-8D7E80BBB22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{C07705E1-BFE3-46FC-B9EE-22667ED85A52}"/>
+    <workbookView xWindow="-48675" yWindow="-10470" windowWidth="21600" windowHeight="11295" xr2:uid="{C07705E1-BFE3-46FC-B9EE-22667ED85A52}"/>
   </bookViews>
   <sheets>
     <sheet name="ZZ1000" sheetId="1" r:id="rId1"/>
@@ -613,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400165C1-6DCE-43DD-A52B-273504C6AD27}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,7 +696,7 @@
         <v>45103</v>
       </c>
       <c r="B5" s="3">
-        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=19")</f>
+        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=21")</f>
         <v>6420.9726000000001</v>
       </c>
       <c r="C5" s="3">
@@ -1329,15 +1329,103 @@
       <c r="B23" s="3">
         <v>6408.7597999999998</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="3">
+        <v>35.593601226806641</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2.2832000255584717</v>
+      </c>
       <c r="E23" s="3">
         <v>12215096200</v>
       </c>
       <c r="F23" s="3">
-        <v>155152822200</v>
-      </c>
-      <c r="G23" s="3"/>
+        <v>155152822236</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.3197000000000001</v>
+      </c>
+      <c r="H23">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A23,252)</f>
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <f>[1]!i_techanal_stagelow_num($B$2,A23,252)</f>
+        <v>29</v>
+      </c>
+      <c r="J23" s="4">
+        <f>100/C23 - Sheet4!B23</f>
+        <v>0.1862937447545181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B24" s="3">
+        <v>6401.4168</v>
+      </c>
+      <c r="C24" s="3">
+        <v>35.571300506591797</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2.2816998958587646</v>
+      </c>
+      <c r="E24" s="3">
+        <v>11359084900</v>
+      </c>
+      <c r="F24" s="3">
+        <v>138788097492</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1.2272000000000001</v>
+      </c>
+      <c r="H24">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A24,252)</f>
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <f>[1]!i_techanal_stagelow_num($B$2,A24,252)</f>
+        <v>20</v>
+      </c>
+      <c r="J24" s="4">
+        <f>100/C24 - Sheet4!B24</f>
+        <v>0.19855510104610286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B25" s="3">
+        <v>6393.7938000000004</v>
+      </c>
+      <c r="C25" s="3">
+        <v>35.521099090576172</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2.2790000438690186</v>
+      </c>
+      <c r="E25" s="3">
+        <v>10904946500</v>
+      </c>
+      <c r="F25" s="3">
+        <v>129838947141</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1.1773</v>
+      </c>
+      <c r="H25">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A25,252)</f>
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <f>[1]!i_techanal_stagelow_num($B$2,A25,252)</f>
+        <v>31</v>
+      </c>
+      <c r="J25" s="4">
+        <f>100/C25 - Sheet4!B25</f>
+        <v>0.20982820408815073</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1348,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90CDCFF-F25D-4B3E-9929-B90F98D638CE}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1435,7 +1523,7 @@
         <v>45103</v>
       </c>
       <c r="B5" s="3">
-        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=19")</f>
+        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=21")</f>
         <v>5887.0324000000001</v>
       </c>
       <c r="C5" s="3">
@@ -2068,15 +2156,103 @@
       <c r="B23" s="3">
         <v>5925.4843000000001</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="3">
+        <v>22.836399078369141</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.802899956703186</v>
+      </c>
       <c r="E23" s="3">
         <v>9119536800</v>
       </c>
       <c r="F23" s="3">
-        <v>123684933500</v>
-      </c>
-      <c r="G23" s="3"/>
+        <v>123684933457</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="H23">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A23,252)</f>
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <f>[1]!i_techanal_stagelow_num($B$2,A23,252)</f>
+        <v>14</v>
+      </c>
+      <c r="J23" s="4">
+        <f>100/C23 - Sheet4!B23</f>
+        <v>1.7557740955578658</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5925.6255000000001</v>
+      </c>
+      <c r="C24" s="3">
+        <v>22.847299575805664</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1.8042000532150269</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8197530700</v>
+      </c>
+      <c r="F24" s="3">
+        <v>107065413904</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="H24">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A24,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <f>[1]!i_techanal_stagelow_num($B$2,A24,252)</f>
+        <v>6</v>
+      </c>
+      <c r="J24" s="4">
+        <f>100/C24 - Sheet4!B24</f>
+        <v>1.7641848772787063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5916.7141000000001</v>
+      </c>
+      <c r="C25" s="3">
+        <v>22.827400207519531</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1.8026000261306763</v>
+      </c>
+      <c r="E25" s="3">
+        <v>7592800100</v>
+      </c>
+      <c r="F25" s="3">
+        <v>99623302711</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="H25">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A25,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f>[1]!i_techanal_stagelow_num($B$2,A25,252)</f>
+        <v>17</v>
+      </c>
+      <c r="J25" s="4">
+        <f>100/C25 - Sheet4!B25</f>
+        <v>1.7753003465536641</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2090,7 +2266,7 @@
   <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2170,7 +2346,7 @@
         <v>45103</v>
       </c>
       <c r="B5" s="3">
-        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=19")</f>
+        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=21")</f>
         <v>3809.6961999999999</v>
       </c>
       <c r="C5" s="3">
@@ -2803,36 +2979,103 @@
       <c r="B23" s="3">
         <v>3823.6945999999998</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="3">
+        <v>11.576800346374512</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.3483999967575073</v>
+      </c>
       <c r="E23" s="3">
         <v>9204207600</v>
       </c>
       <c r="F23" s="3">
-        <v>174320872100</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="J23" s="4"/>
+        <v>174320872140</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="H23">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A23,252)</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>[1]!i_techanal_stagelow_num($B$2,A23,252)</f>
+        <v>10</v>
+      </c>
+      <c r="J23" s="4">
+        <f>100/C23 - Sheet4!B23</f>
+        <v>6.014765327899676</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3821.91</v>
+      </c>
+      <c r="C24" s="3">
+        <v>11.570400238037109</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1.3489999771118164</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7950756300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>157144211209</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="H24">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A24,252)</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>[1]!i_techanal_stagelow_num($B$2,A24,252)</f>
+        <v>8</v>
+      </c>
+      <c r="J24" s="4">
+        <f>100/C24 - Sheet4!B24</f>
+        <v>6.030043374706695</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="J25" s="4"/>
+      <c r="A25" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3805.221</v>
+      </c>
+      <c r="C25" s="3">
+        <v>11.538000106811523</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1.3451999425888062</v>
+      </c>
+      <c r="E25" s="3">
+        <v>7548354500</v>
+      </c>
+      <c r="F25" s="3">
+        <v>151448369566</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.2477</v>
+      </c>
+      <c r="H25">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A25,252)</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>[1]!i_techanal_stagelow_num($B$2,A25,252)</f>
+        <v>12</v>
+      </c>
+      <c r="J25" s="4">
+        <f>100/C25 - Sheet4!B25</f>
+        <v>6.0616132669668161</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
@@ -3935,7 +4178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970FA557-24E3-4030-9B4A-77A730703550}">
   <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3976,7 +4219,7 @@
         <v>45103</v>
       </c>
       <c r="B5" s="3">
-        <f>[1]!WSD(B4,B2:B2,"2023-06-25","","TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=1;rows=18")</f>
+        <f>[1]!WSD(B4,B2:B2,"2023-06-25","","TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=1;rows=21")</f>
         <v>2.6638000000000002</v>
       </c>
     </row>
@@ -4117,16 +4360,28 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2.6232000000000002</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2.6126999999999998</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2.6053999999999999</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>

--- a/Data/updated_index_auto.xlsx
+++ b/Data/updated_index_auto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richy\Documents\Stock_Index\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A119EB-DC11-4C20-BF5B-8D7E80BBB22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E90F7E-576D-44E5-9FC1-3460BFFE01F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48675" yWindow="-10470" windowWidth="21600" windowHeight="11295" xr2:uid="{C07705E1-BFE3-46FC-B9EE-22667ED85A52}"/>
+    <workbookView xWindow="-57720" yWindow="-15990" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{C07705E1-BFE3-46FC-B9EE-22667ED85A52}"/>
   </bookViews>
   <sheets>
     <sheet name="ZZ1000" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -613,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400165C1-6DCE-43DD-A52B-273504C6AD27}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,7 +705,7 @@
         <v>45103</v>
       </c>
       <c r="B5" s="3">
-        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=21")</f>
+        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=26")</f>
         <v>6420.9726000000001</v>
       </c>
       <c r="C5" s="3">
@@ -1425,6 +1434,181 @@
       <c r="J25" s="4">
         <f>100/C25 - Sheet4!B25</f>
         <v>0.20982820408815073</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B26" s="3">
+        <v>6498.2687999999998</v>
+      </c>
+      <c r="C26" s="3">
+        <v>36.083000183105469</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2.3152999877929688</v>
+      </c>
+      <c r="E26" s="3">
+        <v>14736572700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>173378677340</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1.5909</v>
+      </c>
+      <c r="H26">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A26,252)</f>
+        <v>9</v>
+      </c>
+      <c r="I26">
+        <f>[1]!i_techanal_stagelow_num($B$2,A26,252)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <f>100/C26 - Sheet4!B26</f>
+        <v>0.11178817427995646</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6457.2534999999998</v>
+      </c>
+      <c r="C27" s="3">
+        <v>35.910598754882813</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2.3048000335693359</v>
+      </c>
+      <c r="E27" s="3">
+        <v>14958352200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>156686884800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1.6149</v>
+      </c>
+      <c r="H27">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A27,252)</f>
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <f>[1]!i_techanal_stagelow_num($B$2,A27,252)</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="4">
+        <f>100/C27 - Sheet4!B27</f>
+        <v>0.13869319552637283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6407.5460999999996</v>
+      </c>
+      <c r="C28" s="3">
+        <v>35.659599304199219</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2.2892000675201416</v>
+      </c>
+      <c r="E28" s="3">
+        <v>14462435800</v>
+      </c>
+      <c r="F28" s="3">
+        <v>153183204640</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1.5610999999999999</v>
+      </c>
+      <c r="H28">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A28,252)</f>
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <f>[1]!i_techanal_stagelow_num($B$2,A28,252)</f>
+        <v>13</v>
+      </c>
+      <c r="J28" s="4">
+        <f>100/C28 - Sheet4!B28</f>
+        <v>0.16899398959130085</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6465.3762999999999</v>
+      </c>
+      <c r="C29" s="3">
+        <v>36.008899688720703</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2.311500072479248</v>
+      </c>
+      <c r="E29" s="3">
+        <v>15726753200</v>
+      </c>
+      <c r="F29" s="3">
+        <v>166557072700</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1.6976</v>
+      </c>
+      <c r="H29">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A29,252)</f>
+        <v>13</v>
+      </c>
+      <c r="I29">
+        <f>[1]!i_techanal_stagelow_num($B$2,A29,252)</f>
+        <v>5</v>
+      </c>
+      <c r="J29" s="4">
+        <f>100/C29 - Sheet4!B29</f>
+        <v>0.12529124312186735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6515.8486000000003</v>
+      </c>
+      <c r="C30" s="3">
+        <v>36.239101409912109</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2.3264000415802002</v>
+      </c>
+      <c r="E30" s="3">
+        <v>18381598000</v>
+      </c>
+      <c r="F30" s="3">
+        <v>200589879397</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1.9818</v>
+      </c>
+      <c r="H30">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A30,252)</f>
+        <v>21</v>
+      </c>
+      <c r="I30">
+        <f>[1]!i_techanal_stagelow_num($B$2,A30,252)</f>
+        <v>2</v>
+      </c>
+      <c r="J30" s="4">
+        <f>100/C30 - Sheet4!B30</f>
+        <v>9.5150320494095553E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1436,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90CDCFF-F25D-4B3E-9929-B90F98D638CE}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="E26" sqref="E26:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1523,7 +1707,7 @@
         <v>45103</v>
       </c>
       <c r="B5" s="3">
-        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=21")</f>
+        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=26")</f>
         <v>5887.0324000000001</v>
       </c>
       <c r="C5" s="3">
@@ -2252,6 +2436,181 @@
       <c r="J25" s="4">
         <f>100/C25 - Sheet4!B25</f>
         <v>1.7753003465536641</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B26" s="3">
+        <v>6016.6311999999998</v>
+      </c>
+      <c r="C26" s="3">
+        <v>23.188999176025391</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1.8312000036239624</v>
+      </c>
+      <c r="E26" s="3">
+        <v>13189639200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>145732847142</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1.1431</v>
+      </c>
+      <c r="H26">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A26,252)</f>
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <f>[1]!i_techanal_stagelow_num($B$2,A26,252)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <f>100/C26 - Sheet4!B26</f>
+        <v>1.6527896482513071</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6001.5402000000004</v>
+      </c>
+      <c r="C27" s="3">
+        <v>23.142299652099609</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1.8282999992370605</v>
+      </c>
+      <c r="E27" s="3">
+        <v>12182521900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>120547387600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1.0558000000000001</v>
+      </c>
+      <c r="H27">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A27,252)</f>
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <f>[1]!i_techanal_stagelow_num($B$2,A27,252)</f>
+        <v>2</v>
+      </c>
+      <c r="J27" s="4">
+        <f>100/C27 - Sheet4!B27</f>
+        <v>1.675091745561569</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5961.1842999999999</v>
+      </c>
+      <c r="C28" s="3">
+        <v>23.00309944152832</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.8102999925613403</v>
+      </c>
+      <c r="E28" s="3">
+        <v>12300082500</v>
+      </c>
+      <c r="F28" s="3">
+        <v>117272101565</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="H28">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A28,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <f>[1]!i_techanal_stagelow_num($B$2,A28,252)</f>
+        <v>5</v>
+      </c>
+      <c r="J28" s="4">
+        <f>100/C28 - Sheet4!B28</f>
+        <v>1.711940260130616</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6043.2438000000002</v>
+      </c>
+      <c r="C29" s="3">
+        <v>23.31879997253418</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1.8356000185012817</v>
+      </c>
+      <c r="E29" s="3">
+        <v>16317187100</v>
+      </c>
+      <c r="F29" s="3">
+        <v>149147477700</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1.4140999999999999</v>
+      </c>
+      <c r="H29">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A29,252)</f>
+        <v>20</v>
+      </c>
+      <c r="I29">
+        <f>[1]!i_techanal_stagelow_num($B$2,A29,252)</f>
+        <v>2</v>
+      </c>
+      <c r="J29" s="4">
+        <f>100/C29 - Sheet4!B29</f>
+        <v>1.6365853422038881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6088.2430999999997</v>
+      </c>
+      <c r="C30" s="3">
+        <v>23.554500579833984</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.8487999439239502</v>
+      </c>
+      <c r="E30" s="3">
+        <v>18655110300</v>
+      </c>
+      <c r="F30" s="3">
+        <v>179595743483</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1.6148</v>
+      </c>
+      <c r="H30">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A30,252)</f>
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <f>[1]!i_techanal_stagelow_num($B$2,A30,252)</f>
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <f>100/C30 - Sheet4!B30</f>
+        <v>1.581173159622594</v>
       </c>
     </row>
   </sheetData>
@@ -2265,8 +2624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E965FD-9AE0-4478-8833-F344FEC72F94}">
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W60" sqref="W60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2346,7 +2705,7 @@
         <v>45103</v>
       </c>
       <c r="B5" s="3">
-        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=21")</f>
+        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=26")</f>
         <v>3809.6961999999999</v>
       </c>
       <c r="C5" s="3">
@@ -3078,54 +3437,179 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="J26" s="4"/>
+      <c r="A26" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3915.1152999999999</v>
+      </c>
+      <c r="C26" s="3">
+        <v>11.839500427246094</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1.3802000284194946</v>
+      </c>
+      <c r="E26" s="3">
+        <v>16306632000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>299853562168</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="H26">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A26,252)</f>
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <f>[1]!i_techanal_stagelow_num($B$2,A26,252)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <f>100/C26 - Sheet4!B26</f>
+        <v>5.7867023262257975</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="J27" s="4"/>
+      <c r="A27" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3907.0128</v>
+      </c>
+      <c r="C27" s="3">
+        <v>11.773200035095215</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1.3763999938964844</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10788171700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>192912604800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.35389999999999999</v>
+      </c>
+      <c r="H27">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A27,252)</f>
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <f>[1]!i_techanal_stagelow_num($B$2,A27,252)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <f>100/C27 - Sheet4!B27</f>
+        <v>5.8478674023974699</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="J28" s="4"/>
+      <c r="A28" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3902.3458000000001</v>
+      </c>
+      <c r="C28" s="3">
+        <v>11.781700134277344</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.3774000406265259</v>
+      </c>
+      <c r="E28" s="3">
+        <v>11066710900</v>
+      </c>
+      <c r="F28" s="3">
+        <v>196845425513</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="H28">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A28,252)</f>
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <f>[1]!i_techanal_stagelow_num($B$2,A28,252)</f>
+        <v>3</v>
+      </c>
+      <c r="J28" s="4">
+        <f>100/C28 - Sheet4!B28</f>
+        <v>5.8524393636138159</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="J29" s="4"/>
+      <c r="A29" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B29" s="3">
+        <v>3992.7375999999999</v>
+      </c>
+      <c r="C29" s="3">
+        <v>12.046600341796875</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1.4089000225067139</v>
+      </c>
+      <c r="E29" s="3">
+        <v>17973548100</v>
+      </c>
+      <c r="F29" s="3">
+        <v>310092467400</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.58960000000000001</v>
+      </c>
+      <c r="H29">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A29,252)</f>
+        <v>12</v>
+      </c>
+      <c r="I29">
+        <f>[1]!i_techanal_stagelow_num($B$2,A29,252)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <f>100/C29 - Sheet4!B29</f>
+        <v>5.6492971695508221</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="J30" s="4"/>
+      <c r="A30" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B30" s="3">
+        <v>4014.6300999999999</v>
+      </c>
+      <c r="C30" s="3">
+        <v>12.095800399780273</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.4138000011444092</v>
+      </c>
+      <c r="E30" s="3">
+        <v>19960683000</v>
+      </c>
+      <c r="F30" s="3">
+        <v>366544120000</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="H30">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A30,252)</f>
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <f>[1]!i_techanal_stagelow_num($B$2,A30,252)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <f>100/C30 - Sheet4!B30</f>
+        <v>5.6030321892626924</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
@@ -4219,7 +4703,7 @@
         <v>45103</v>
       </c>
       <c r="B5" s="3">
-        <f>[1]!WSD(B4,B2:B2,"2023-06-25","","TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=1;rows=21")</f>
+        <f>[1]!WSD(B4,B2:B2,"2023-06-25","","TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=1;rows=26")</f>
         <v>2.6638000000000002</v>
       </c>
     </row>
@@ -4384,24 +4868,44 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2.6596000000000002</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2.6459999999999999</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2.6353</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2.6518000000000002</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2.6642999999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>

--- a/Data/updated_index_auto.xlsx
+++ b/Data/updated_index_auto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richy\Documents\Stock_Index\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E90F7E-576D-44E5-9FC1-3460BFFE01F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D544D9-8FCC-4ABF-8262-71E27E000D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-15990" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{C07705E1-BFE3-46FC-B9EE-22667ED85A52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C07705E1-BFE3-46FC-B9EE-22667ED85A52}"/>
   </bookViews>
   <sheets>
     <sheet name="ZZ1000" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -266,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -280,6 +271,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -622,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400165C1-6DCE-43DD-A52B-273504C6AD27}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:I30"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -705,7 +699,7 @@
         <v>45103</v>
       </c>
       <c r="B5" s="3">
-        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=26")</f>
+        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=56")</f>
         <v>6420.9726000000001</v>
       </c>
       <c r="C5" s="3">
@@ -1609,6 +1603,1056 @@
       <c r="J30" s="4">
         <f>100/C30 - Sheet4!B30</f>
         <v>9.5150320494095553E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B31" s="3">
+        <v>6507.4124000000002</v>
+      </c>
+      <c r="C31" s="3">
+        <v>36.154701232910156</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2.3217999935150146</v>
+      </c>
+      <c r="E31" s="3">
+        <v>18432646400</v>
+      </c>
+      <c r="F31" s="3">
+        <v>183590037300</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1.9871000000000001</v>
+      </c>
+      <c r="H31">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A31,252)</f>
+        <v>19</v>
+      </c>
+      <c r="I31">
+        <f>[1]!i_techanal_stagelow_num($B$2,A31,252)</f>
+        <v>5</v>
+      </c>
+      <c r="J31" s="4">
+        <f>100/C31 - Sheet4!B31</f>
+        <v>0.11139203035576628</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B32" s="3">
+        <v>6496.0222000000003</v>
+      </c>
+      <c r="C32" s="3">
+        <v>36.077301025390625</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2.3169000148773193</v>
+      </c>
+      <c r="E32" s="3">
+        <v>16864628900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>171110955344</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1.8178000000000001</v>
+      </c>
+      <c r="H32">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A32,252)</f>
+        <v>21</v>
+      </c>
+      <c r="I32">
+        <f>[1]!i_techanal_stagelow_num($B$2,A32,252)</f>
+        <v>5</v>
+      </c>
+      <c r="J32" s="4">
+        <f>100/C32 - Sheet4!B32</f>
+        <v>0.1196259725033646</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B33" s="3">
+        <v>6499.5447999999997</v>
+      </c>
+      <c r="C33" s="3">
+        <v>36.076999664306641</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2.3178000450134277</v>
+      </c>
+      <c r="E33" s="3">
+        <v>16347139500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>164830188575</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1.7616000000000001</v>
+      </c>
+      <c r="H33">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A33,252)</f>
+        <v>19</v>
+      </c>
+      <c r="I33">
+        <f>[1]!i_techanal_stagelow_num($B$2,A33,252)</f>
+        <v>2</v>
+      </c>
+      <c r="J33" s="4">
+        <f>100/C33 - Sheet4!B33</f>
+        <v>0.1268491263267828</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6535.3220000000001</v>
+      </c>
+      <c r="C34" s="3">
+        <v>36.237800598144531</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2.3269999027252197</v>
+      </c>
+      <c r="E34" s="3">
+        <v>19462299900</v>
+      </c>
+      <c r="F34" s="3">
+        <v>205415679148</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2.0971000000000002</v>
+      </c>
+      <c r="H34">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A34,252)</f>
+        <v>20</v>
+      </c>
+      <c r="I34">
+        <f>[1]!i_techanal_stagelow_num($B$2,A34,252)</f>
+        <v>2</v>
+      </c>
+      <c r="J34" s="4">
+        <f>100/C34 - Sheet4!B34</f>
+        <v>0.11134937522119515</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B35" s="3">
+        <v>6503.9825000000001</v>
+      </c>
+      <c r="C35" s="3">
+        <v>36.046600341796875</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2.3117001056671143</v>
+      </c>
+      <c r="E35" s="3">
+        <v>16891941200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>185333349118</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1.8186</v>
+      </c>
+      <c r="H35">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A35,252)</f>
+        <v>12</v>
+      </c>
+      <c r="I35">
+        <f>[1]!i_techanal_stagelow_num($B$2,A35,252)</f>
+        <v>23</v>
+      </c>
+      <c r="J35" s="4">
+        <f>100/C35 - Sheet4!B35</f>
+        <v>0.127586720850001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B36" s="3">
+        <v>6471.3444</v>
+      </c>
+      <c r="C36" s="3">
+        <v>35.898399353027344</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2.3004999160766602</v>
+      </c>
+      <c r="E36" s="3">
+        <v>14274341400</v>
+      </c>
+      <c r="F36" s="3">
+        <v>154646581021</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1.5367999999999999</v>
+      </c>
+      <c r="H36">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A36,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <f>[1]!i_techanal_stagelow_num($B$2,A36,252)</f>
+        <v>30</v>
+      </c>
+      <c r="J36" s="4">
+        <f>100/C36 - Sheet4!B36</f>
+        <v>0.13773952160075664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B37" s="3">
+        <v>6420.9768000000004</v>
+      </c>
+      <c r="C37" s="3">
+        <v>35.661201477050781</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2.2850000858306885</v>
+      </c>
+      <c r="E37" s="3">
+        <v>13231946700</v>
+      </c>
+      <c r="F37" s="3">
+        <v>148343587966</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1.4245000000000001</v>
+      </c>
+      <c r="H37">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A37,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <f>[1]!i_techanal_stagelow_num($B$2,A37,252)</f>
+        <v>23</v>
+      </c>
+      <c r="J37" s="4">
+        <f>100/C37 - Sheet4!B37</f>
+        <v>0.15696799934106132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B38" s="3">
+        <v>6426.8141999999998</v>
+      </c>
+      <c r="C38" s="3">
+        <v>35.754199981689453</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2.287100076675415</v>
+      </c>
+      <c r="E38" s="3">
+        <v>13195769200</v>
+      </c>
+      <c r="F38" s="3">
+        <v>134873259681</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1.4206000000000001</v>
+      </c>
+      <c r="H38">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A38,252)</f>
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <f>[1]!i_techanal_stagelow_num($B$2,A38,252)</f>
+        <v>9</v>
+      </c>
+      <c r="J38" s="4">
+        <f>100/C38 - Sheet4!B38</f>
+        <v>0.14727421481147118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B39" s="3">
+        <v>6304.6354000000001</v>
+      </c>
+      <c r="C39" s="3">
+        <v>35.123798370361328</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2.2446999549865723</v>
+      </c>
+      <c r="E39" s="3">
+        <v>14901672900</v>
+      </c>
+      <c r="F39" s="3">
+        <v>149330410482</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1.6042000000000001</v>
+      </c>
+      <c r="H39">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A39,252)</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f>[1]!i_techanal_stagelow_num($B$2,A39,252)</f>
+        <v>47</v>
+      </c>
+      <c r="J39" s="4">
+        <f>100/C39 - Sheet4!B39</f>
+        <v>0.19927248759244209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B40" s="3">
+        <v>6319.4072999999999</v>
+      </c>
+      <c r="C40" s="3">
+        <v>35.244701385498047</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2.2481000423431396</v>
+      </c>
+      <c r="E40" s="3">
+        <v>13839222100</v>
+      </c>
+      <c r="F40" s="3">
+        <v>145626319568</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1.4898</v>
+      </c>
+      <c r="H40">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A40,252)</f>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f>[1]!i_techanal_stagelow_num($B$2,A40,252)</f>
+        <v>62</v>
+      </c>
+      <c r="J40" s="4">
+        <f>100/C40 - Sheet4!B40</f>
+        <v>0.21160592312938364</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6261.7332999999999</v>
+      </c>
+      <c r="C41" s="3">
+        <v>34.967899322509766</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2.2283999919891357</v>
+      </c>
+      <c r="E41" s="3">
+        <v>12270310700</v>
+      </c>
+      <c r="F41" s="3">
+        <v>132851531983</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1.3208</v>
+      </c>
+      <c r="H41">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A41,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f>[1]!i_techanal_stagelow_num($B$2,A41,252)</f>
+        <v>84</v>
+      </c>
+      <c r="J41" s="4">
+        <f>100/C41 - Sheet4!B41</f>
+        <v>0.28426572620784629</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6186.4029</v>
+      </c>
+      <c r="C42" s="3">
+        <v>34.588199615478516</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2.2028000354766846</v>
+      </c>
+      <c r="E42" s="3">
+        <v>12495875900</v>
+      </c>
+      <c r="F42" s="3">
+        <v>132390724363</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1.3451</v>
+      </c>
+      <c r="H42">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A42,252)</f>
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <f>[1]!i_techanal_stagelow_num($B$2,A42,252)</f>
+        <v>104</v>
+      </c>
+      <c r="J42" s="4">
+        <f>100/C42 - Sheet4!B42</f>
+        <v>0.32905944488909267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>45155</v>
+      </c>
+      <c r="B43" s="3">
+        <v>6247.6010999999999</v>
+      </c>
+      <c r="C43" s="3">
+        <v>34.902999877929688</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2.2225000858306885</v>
+      </c>
+      <c r="E43" s="3">
+        <v>12913523800</v>
+      </c>
+      <c r="F43" s="3">
+        <v>139152590240</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1.3898999999999999</v>
+      </c>
+      <c r="H43">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A43,252)</f>
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <f>[1]!i_techanal_stagelow_num($B$2,A43,252)</f>
+        <v>22</v>
+      </c>
+      <c r="J43" s="4">
+        <f>100/C43 - Sheet4!B43</f>
+        <v>0.2950832406882391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B44" s="3">
+        <v>6117.1073999999999</v>
+      </c>
+      <c r="C44" s="3">
+        <v>34.316200256347656</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2.176300048828125</v>
+      </c>
+      <c r="E44" s="3">
+        <v>13921253900</v>
+      </c>
+      <c r="F44" s="3">
+        <v>139942744387</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1.4976</v>
+      </c>
+      <c r="H44">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A44,252)</f>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f>[1]!i_techanal_stagelow_num($B$2,A44,252)</f>
+        <v>105</v>
+      </c>
+      <c r="J44" s="4">
+        <f>100/C44 - Sheet4!B44</f>
+        <v>0.34637554603900123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>45159</v>
+      </c>
+      <c r="B45" s="3">
+        <v>6057.1707999999999</v>
+      </c>
+      <c r="C45" s="3">
+        <v>34.081298828125</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2.1542000770568848</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11709169600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>119633708946</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1.2586999999999999</v>
+      </c>
+      <c r="H45">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A45,252)</f>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f>[1]!i_techanal_stagelow_num($B$2,A45,252)</f>
+        <v>145</v>
+      </c>
+      <c r="J45" s="4">
+        <f>100/C45 - Sheet4!B45</f>
+        <v>0.38986047622799935</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B46" s="3">
+        <v>6099.1948000000002</v>
+      </c>
+      <c r="C46" s="3">
+        <v>34.591598510742188</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2.1642999649047852</v>
+      </c>
+      <c r="E46" s="3">
+        <v>14428242200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>153871289475</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="H46">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A46,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <f>[1]!i_techanal_stagelow_num($B$2,A46,252)</f>
+        <v>129</v>
+      </c>
+      <c r="J46" s="4">
+        <f>100/C46 - Sheet4!B46</f>
+        <v>0.34077536584774126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>45161</v>
+      </c>
+      <c r="B47" s="3">
+        <v>5973.6710999999996</v>
+      </c>
+      <c r="C47" s="3">
+        <v>34.035099029541016</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2.1212999820709229</v>
+      </c>
+      <c r="E47" s="3">
+        <v>12842238200</v>
+      </c>
+      <c r="F47" s="3">
+        <v>135807067810</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1.3805000000000001</v>
+      </c>
+      <c r="H47">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A47,252)</f>
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <f>[1]!i_techanal_stagelow_num($B$2,A47,252)</f>
+        <v>220</v>
+      </c>
+      <c r="J47" s="4">
+        <f>100/C47 - Sheet4!B47</f>
+        <v>0.38304335351879715</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B48" s="3">
+        <v>5987.9663</v>
+      </c>
+      <c r="C48" s="3">
+        <v>33.995098114013672</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2.1254000663757324</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13419745100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>146793181320</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1.4423999999999999</v>
+      </c>
+      <c r="H48">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A48,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <f>[1]!i_techanal_stagelow_num($B$2,A48,252)</f>
+        <v>111</v>
+      </c>
+      <c r="J48" s="4">
+        <f>100/C48 - Sheet4!B48</f>
+        <v>0.38680057031214643</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B49" s="3">
+        <v>5879.0267999999996</v>
+      </c>
+      <c r="C49" s="3">
+        <v>33.777599334716797</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2.0831000804901123</v>
+      </c>
+      <c r="E49" s="3">
+        <v>14011710800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>150562437510</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1.5059</v>
+      </c>
+      <c r="H49">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A49,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <f>[1]!i_techanal_stagelow_num($B$2,A49,252)</f>
+        <v>222</v>
+      </c>
+      <c r="J49" s="4">
+        <f>100/C49 - Sheet4!B49</f>
+        <v>0.39004195589973323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B50" s="3">
+        <v>5922.1616999999997</v>
+      </c>
+      <c r="C50" s="3">
+        <v>34.409198760986328</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2.0947999954223633</v>
+      </c>
+      <c r="E50" s="3">
+        <v>21087009800</v>
+      </c>
+      <c r="F50" s="3">
+        <v>213172935998</v>
+      </c>
+      <c r="G50" s="3">
+        <v>2.2650999999999999</v>
+      </c>
+      <c r="H50">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A50,252)</f>
+        <v>8</v>
+      </c>
+      <c r="I50">
+        <f>[1]!i_techanal_stagelow_num($B$2,A50,252)</f>
+        <v>104</v>
+      </c>
+      <c r="J50" s="4">
+        <f>100/C50 - Sheet4!B50</f>
+        <v>0.3183996094306476</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>45167</v>
+      </c>
+      <c r="B51" s="3">
+        <v>6108.7588999999998</v>
+      </c>
+      <c r="C51" s="3">
+        <v>35.753501892089844</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2.1563999652862549</v>
+      </c>
+      <c r="E51" s="3">
+        <v>18668957600</v>
+      </c>
+      <c r="F51" s="3">
+        <v>200633240452</v>
+      </c>
+      <c r="G51" s="3">
+        <v>2.0053999999999998</v>
+      </c>
+      <c r="H51">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A51,252)</f>
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <f>[1]!i_techanal_stagelow_num($B$2,A51,252)</f>
+        <v>3</v>
+      </c>
+      <c r="J51" s="4">
+        <f>100/C51 - Sheet4!B51</f>
+        <v>0.22692882397413916</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B52" s="3">
+        <v>6139.6265000000003</v>
+      </c>
+      <c r="C52" s="3">
+        <v>36.429298400878906</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2.1614999771118164</v>
+      </c>
+      <c r="E52" s="3">
+        <v>16749956000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>194127658982</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1.7984</v>
+      </c>
+      <c r="H52">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A52,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <f>[1]!i_techanal_stagelow_num($B$2,A52,252)</f>
+        <v>9</v>
+      </c>
+      <c r="J52" s="4">
+        <f>100/C52 - Sheet4!B52</f>
+        <v>0.18254325885088596</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B53" s="3">
+        <v>6104.2952999999998</v>
+      </c>
+      <c r="C53" s="3">
+        <v>38.099998474121094</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2.1424000263214111</v>
+      </c>
+      <c r="E53" s="3">
+        <v>14304040900</v>
+      </c>
+      <c r="F53" s="3">
+        <v>161004803813</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1.5357000000000001</v>
+      </c>
+      <c r="H53">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A53,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <f>[1]!i_techanal_stagelow_num($B$2,A53,252)</f>
+        <v>31</v>
+      </c>
+      <c r="J53" s="4">
+        <f>100/C53 - Sheet4!B53</f>
+        <v>7.0572021126815709E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B54" s="3">
+        <v>6107.1995999999999</v>
+      </c>
+      <c r="C54" s="3">
+        <v>38.139499664306641</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2.144399881362915</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12401705300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>138221321938</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1.3313999999999999</v>
+      </c>
+      <c r="H54">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A54,252)</f>
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <f>[1]!i_techanal_stagelow_num($B$2,A54,252)</f>
+        <v>13</v>
+      </c>
+      <c r="J54" s="4">
+        <f>100/C54 - Sheet4!B54</f>
+        <v>3.9453640718216665E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>45173</v>
+      </c>
+      <c r="B55" s="3">
+        <v>6198.7623000000003</v>
+      </c>
+      <c r="C55" s="3">
+        <v>38.678600311279297</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2.1747000217437744</v>
+      </c>
+      <c r="E55" s="3">
+        <v>15550728100</v>
+      </c>
+      <c r="F55" s="3">
+        <v>167770708192</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1.6695</v>
+      </c>
+      <c r="H55">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A55,252)</f>
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <f>[1]!i_techanal_stagelow_num($B$2,A55,252)</f>
+        <v>2</v>
+      </c>
+      <c r="J55" s="4">
+        <f>100/C55 - Sheet4!B55</f>
+        <v>-2.7091034959493943E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B56" s="3">
+        <v>6167.6421</v>
+      </c>
+      <c r="C56" s="3">
+        <v>38.47760009765625</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2.1633999347686768</v>
+      </c>
+      <c r="E56" s="3">
+        <v>14106799900</v>
+      </c>
+      <c r="F56" s="3">
+        <v>162636723669</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1.5145</v>
+      </c>
+      <c r="H56">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A56,252)</f>
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <f>[1]!i_techanal_stagelow_num($B$2,A56,252)</f>
+        <v>3</v>
+      </c>
+      <c r="J56" s="4">
+        <f>100/C56 - Sheet4!B56</f>
+        <v>-1.2085313371942963E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>45175</v>
+      </c>
+      <c r="B57" s="3">
+        <v>6195.3828000000003</v>
+      </c>
+      <c r="C57" s="3">
+        <v>38.621898651123047</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2.1714999675750732</v>
+      </c>
+      <c r="E57" s="3">
+        <v>12971766400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>154853582103</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1.3926000000000001</v>
+      </c>
+      <c r="H57">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A57,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <f>[1]!i_techanal_stagelow_num($B$2,A57,252)</f>
+        <v>8</v>
+      </c>
+      <c r="J57" s="4">
+        <f>100/C57 - Sheet4!B57</f>
+        <v>-4.5795339107643329E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B58" s="3">
+        <v>6083.4893000000002</v>
+      </c>
+      <c r="C58" s="3">
+        <v>37.936798095703125</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2.1329998970031738</v>
+      </c>
+      <c r="E58" s="3">
+        <v>13225411600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>150714755551</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1.4187000000000001</v>
+      </c>
+      <c r="H58">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A58,252)</f>
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <f>[1]!i_techanal_stagelow_num($B$2,A58,252)</f>
+        <v>34</v>
+      </c>
+      <c r="J58" s="4">
+        <f>100/C58 - Sheet4!B58</f>
+        <v>-6.5368976915212151E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B59" s="3">
+        <v>6102.4883</v>
+      </c>
+      <c r="C59" s="3">
+        <v>38.052799224853516</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2.1391000747680664</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11891827900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>142083251235</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1.2756000000000001</v>
+      </c>
+      <c r="H59">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A59,252)</f>
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <f>[1]!i_techanal_stagelow_num($B$2,A59,252)</f>
+        <v>32</v>
+      </c>
+      <c r="J59" s="4">
+        <f>100/C59 - Sheet4!B59</f>
+        <v>-9.5724352208299557E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B60" s="3">
+        <v>6182.6432999999997</v>
+      </c>
+      <c r="C60" s="3">
+        <v>38.55059814453125</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2.1670999526977539</v>
+      </c>
+      <c r="E60" s="3">
+        <v>14400329900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>172589292500</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1.5438000000000001</v>
+      </c>
+      <c r="H60">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A60,252)</f>
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <f>[1]!i_techanal_stagelow_num($B$2,A60,252)</f>
+        <v>4</v>
+      </c>
+      <c r="J60" s="4">
+        <f>100/C60 - Sheet4!B60</f>
+        <v>2.5939934738518682</v>
       </c>
     </row>
   </sheetData>
@@ -1620,10 +2664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90CDCFF-F25D-4B3E-9929-B90F98D638CE}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:I30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1634,6 +2678,7 @@
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="22.875" customWidth="1"/>
     <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1675,7 +2720,7 @@
       <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1707,7 +2752,7 @@
         <v>45103</v>
       </c>
       <c r="B5" s="3">
-        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=26")</f>
+        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=56")</f>
         <v>5887.0324000000001</v>
       </c>
       <c r="C5" s="3">
@@ -1733,7 +2778,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A5,252)</f>
         <v>51</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <f>100/C5 - Sheet4!B5</f>
         <v>1.7490483740726637</v>
       </c>
@@ -1768,7 +2813,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A6,252)</f>
         <v>3</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <f>100/C6 - Sheet4!B6</f>
         <v>1.6933217223872732</v>
       </c>
@@ -1803,7 +2848,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A7,252)</f>
         <v>8</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="5">
         <f>100/C7 - Sheet4!B7</f>
         <v>1.7023967816734533</v>
       </c>
@@ -1838,7 +2883,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A8,252)</f>
         <v>15</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="5">
         <f>100/C8 - Sheet4!B8</f>
         <v>1.7095754257441094</v>
       </c>
@@ -1873,7 +2918,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A9,252)</f>
         <v>3</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="5">
         <f>100/C9 - Sheet4!B9</f>
         <v>1.6975941658930354</v>
       </c>
@@ -1908,7 +2953,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A10,252)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="5">
         <f>100/C10 - Sheet4!B10</f>
         <v>1.6595547709879215</v>
       </c>
@@ -1943,7 +2988,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A11,252)</f>
         <v>1</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="5">
         <f>100/C11 - Sheet4!B11</f>
         <v>1.6563060387381361</v>
       </c>
@@ -1978,7 +3023,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A12,252)</f>
         <v>7</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="5">
         <f>100/C12 - Sheet4!B12</f>
         <v>1.6791383188612246</v>
       </c>
@@ -2013,7 +3058,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A13,252)</f>
         <v>11</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="5">
         <f>100/C13 - Sheet4!B13</f>
         <v>1.6999133124889796</v>
       </c>
@@ -2048,7 +3093,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A14,252)</f>
         <v>11</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="5">
         <f>100/C14 - Sheet4!B14</f>
         <v>1.7189794994075189</v>
       </c>
@@ -2083,7 +3128,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A15,252)</f>
         <v>3</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="5">
         <f>100/C15 - Sheet4!B15</f>
         <v>1.6955724666515652</v>
       </c>
@@ -2118,7 +3163,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A16,252)</f>
         <v>1</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="5">
         <f>100/C16 - Sheet4!B16</f>
         <v>1.6769863781366134</v>
       </c>
@@ -2153,7 +3198,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A17,252)</f>
         <v>7</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="5">
         <f>100/C17 - Sheet4!B17</f>
         <v>1.71787708625655</v>
       </c>
@@ -2188,7 +3233,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A18,252)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="5">
         <f>100/C18 - Sheet4!B18</f>
         <v>1.6619485387089403</v>
       </c>
@@ -2223,7 +3268,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A19,252)</f>
         <v>3</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="5">
         <f>100/C19 - Sheet4!B19</f>
         <v>1.6657523306819293</v>
       </c>
@@ -2258,7 +3303,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A20,252)</f>
         <v>18</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="5">
         <f>100/C20 - Sheet4!B20</f>
         <v>1.6880868742971225</v>
       </c>
@@ -2293,7 +3338,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A21,252)</f>
         <v>8</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="5">
         <f>100/C21 - Sheet4!B21</f>
         <v>1.7047542690985988</v>
       </c>
@@ -2328,7 +3373,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A22,252)</f>
         <v>14</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="5">
         <f>100/C22 - Sheet4!B22</f>
         <v>1.7062428602477078</v>
       </c>
@@ -2363,7 +3408,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A23,252)</f>
         <v>14</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="5">
         <f>100/C23 - Sheet4!B23</f>
         <v>1.7557740955578658</v>
       </c>
@@ -2398,7 +3443,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A24,252)</f>
         <v>6</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="5">
         <f>100/C24 - Sheet4!B24</f>
         <v>1.7641848772787063</v>
       </c>
@@ -2433,7 +3478,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A25,252)</f>
         <v>17</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="5">
         <f>100/C25 - Sheet4!B25</f>
         <v>1.7753003465536641</v>
       </c>
@@ -2468,7 +3513,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A26,252)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="5">
         <f>100/C26 - Sheet4!B26</f>
         <v>1.6527896482513071</v>
       </c>
@@ -2503,7 +3548,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A27,252)</f>
         <v>2</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="5">
         <f>100/C27 - Sheet4!B27</f>
         <v>1.675091745561569</v>
       </c>
@@ -2538,7 +3583,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A28,252)</f>
         <v>5</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="5">
         <f>100/C28 - Sheet4!B28</f>
         <v>1.711940260130616</v>
       </c>
@@ -2573,7 +3618,7 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A29,252)</f>
         <v>2</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="5">
         <f>100/C29 - Sheet4!B29</f>
         <v>1.6365853422038881</v>
       </c>
@@ -2608,9 +3653,1059 @@
         <f>[1]!i_techanal_stagelow_num($B$2,A30,252)</f>
         <v>1</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="5">
         <f>100/C30 - Sheet4!B30</f>
         <v>1.581173159622594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B31" s="3">
+        <v>6098.8788999999997</v>
+      </c>
+      <c r="C31" s="3">
+        <v>23.586599349975586</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1.8581999540328979</v>
+      </c>
+      <c r="E31" s="3">
+        <v>18758860000</v>
+      </c>
+      <c r="F31" s="3">
+        <v>166628364700</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1.6237999999999999</v>
+      </c>
+      <c r="H31">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A31,252)</f>
+        <v>13</v>
+      </c>
+      <c r="I31">
+        <f>[1]!i_techanal_stagelow_num($B$2,A31,252)</f>
+        <v>3</v>
+      </c>
+      <c r="J31" s="5">
+        <f>100/C31 - Sheet4!B31</f>
+        <v>1.5851955371230111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B32" s="3">
+        <v>6077.4645</v>
+      </c>
+      <c r="C32" s="3">
+        <v>23.510200500488281</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1.8518999814987183</v>
+      </c>
+      <c r="E32" s="3">
+        <v>14715452900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>135758673345</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1.2737000000000001</v>
+      </c>
+      <c r="H32">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A32,252)</f>
+        <v>11</v>
+      </c>
+      <c r="I32">
+        <f>[1]!i_techanal_stagelow_num($B$2,A32,252)</f>
+        <v>8</v>
+      </c>
+      <c r="J32" s="5">
+        <f>100/C32 - Sheet4!B32</f>
+        <v>1.6012728701238896</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B33" s="3">
+        <v>6098.6868000000004</v>
+      </c>
+      <c r="C33" s="3">
+        <v>23.586799621582031</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1.8590999841690063</v>
+      </c>
+      <c r="E33" s="3">
+        <v>14647901100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>138777463930</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1.2679</v>
+      </c>
+      <c r="H33">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A33,252)</f>
+        <v>21</v>
+      </c>
+      <c r="I33">
+        <f>[1]!i_techanal_stagelow_num($B$2,A33,252)</f>
+        <v>3</v>
+      </c>
+      <c r="J33" s="5">
+        <f>100/C33 - Sheet4!B33</f>
+        <v>1.5946595385708684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6128.5559999999996</v>
+      </c>
+      <c r="C34" s="3">
+        <v>23.655399322509766</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1.8667999505996704</v>
+      </c>
+      <c r="E34" s="3">
+        <v>19694350100</v>
+      </c>
+      <c r="F34" s="3">
+        <v>186850093569</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1.7047000000000001</v>
+      </c>
+      <c r="H34">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A34,252)</f>
+        <v>21</v>
+      </c>
+      <c r="I34">
+        <f>[1]!i_techanal_stagelow_num($B$2,A34,252)</f>
+        <v>2</v>
+      </c>
+      <c r="J34" s="5">
+        <f>100/C34 - Sheet4!B34</f>
+        <v>1.5791646974474451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B35" s="3">
+        <v>6090.7307000000001</v>
+      </c>
+      <c r="C35" s="3">
+        <v>23.504899978637695</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1.8544000387191772</v>
+      </c>
+      <c r="E35" s="3">
+        <v>14531913700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>154416328543</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1.2578</v>
+      </c>
+      <c r="H35">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A35,252)</f>
+        <v>14</v>
+      </c>
+      <c r="I35">
+        <f>[1]!i_techanal_stagelow_num($B$2,A35,252)</f>
+        <v>8</v>
+      </c>
+      <c r="J35" s="5">
+        <f>100/C35 - Sheet4!B35</f>
+        <v>1.6078320584594903</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B36" s="3">
+        <v>6066.1018999999997</v>
+      </c>
+      <c r="C36" s="3">
+        <v>23.401899337768555</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1.8467999696731567</v>
+      </c>
+      <c r="E36" s="3">
+        <v>12154572800</v>
+      </c>
+      <c r="F36" s="3">
+        <v>131357351526</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1.0521</v>
+      </c>
+      <c r="H36">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A36,252)</f>
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <f>[1]!i_techanal_stagelow_num($B$2,A36,252)</f>
+        <v>12</v>
+      </c>
+      <c r="J36" s="5">
+        <f>100/C36 - Sheet4!B36</f>
+        <v>1.6252574286625965</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B37" s="3">
+        <v>6021.7506000000003</v>
+      </c>
+      <c r="C37" s="3">
+        <v>23.245800018310547</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1.8345999717712402</v>
+      </c>
+      <c r="E37" s="3">
+        <v>9880917400</v>
+      </c>
+      <c r="F37" s="3">
+        <v>116294678354</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.85529999999999995</v>
+      </c>
+      <c r="H37">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A37,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f>[1]!i_techanal_stagelow_num($B$2,A37,252)</f>
+        <v>13</v>
+      </c>
+      <c r="J37" s="5">
+        <f>100/C37 - Sheet4!B37</f>
+        <v>1.6546523742452712</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B38" s="3">
+        <v>6031.7105000000001</v>
+      </c>
+      <c r="C38" s="3">
+        <v>23.326099395751953</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1.8396999835968018</v>
+      </c>
+      <c r="E38" s="3">
+        <v>9984263800</v>
+      </c>
+      <c r="F38" s="3">
+        <v>103950301369</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="H38">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A38,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <f>[1]!i_techanal_stagelow_num($B$2,A38,252)</f>
+        <v>4</v>
+      </c>
+      <c r="J38" s="5">
+        <f>100/C38 - Sheet4!B38</f>
+        <v>1.6374433801808954</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B39" s="3">
+        <v>5913.3501999999999</v>
+      </c>
+      <c r="C39" s="3">
+        <v>22.885799407958984</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1.8041000366210938</v>
+      </c>
+      <c r="E39" s="3">
+        <v>11307200700</v>
+      </c>
+      <c r="F39" s="3">
+        <v>115393420336</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="H39">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A39,252)</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f>[1]!i_techanal_stagelow_num($B$2,A39,252)</f>
+        <v>22</v>
+      </c>
+      <c r="J39" s="5">
+        <f>100/C39 - Sheet4!B39</f>
+        <v>1.7217218251901238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B40" s="3">
+        <v>5916.8028999999997</v>
+      </c>
+      <c r="C40" s="3">
+        <v>22.949199676513672</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1.8059999942779541</v>
+      </c>
+      <c r="E40" s="3">
+        <v>10367570600</v>
+      </c>
+      <c r="F40" s="3">
+        <v>116321082192</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="H40">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A40,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f>[1]!i_techanal_stagelow_num($B$2,A40,252)</f>
+        <v>31</v>
+      </c>
+      <c r="J40" s="5">
+        <f>100/C40 - Sheet4!B40</f>
+        <v>1.7317504300618598</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B41" s="3">
+        <v>5879.7781999999997</v>
+      </c>
+      <c r="C41" s="3">
+        <v>22.857400894165039</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1.7960000038146973</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9241738100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>107626210842</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.79959999999999998</v>
+      </c>
+      <c r="H41">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A41,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <f>[1]!i_techanal_stagelow_num($B$2,A41,252)</f>
+        <v>41</v>
+      </c>
+      <c r="J41" s="5">
+        <f>100/C41 - Sheet4!B41</f>
+        <v>1.7994506106587851</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5833.2155000000002</v>
+      </c>
+      <c r="C42" s="3">
+        <v>22.690799713134766</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1.7818000316619873</v>
+      </c>
+      <c r="E42" s="3">
+        <v>10495042500</v>
+      </c>
+      <c r="F42" s="3">
+        <v>114013689380</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="H42">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A42,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <f>[1]!i_techanal_stagelow_num($B$2,A42,252)</f>
+        <v>57</v>
+      </c>
+      <c r="J42" s="5">
+        <f>100/C42 - Sheet4!B42</f>
+        <v>1.8449725256154874</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>45155</v>
+      </c>
+      <c r="B43" s="3">
+        <v>5874.3608999999997</v>
+      </c>
+      <c r="C43" s="3">
+        <v>22.846599578857422</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1.7927000522613525</v>
+      </c>
+      <c r="E43" s="3">
+        <v>11357638400</v>
+      </c>
+      <c r="F43" s="3">
+        <v>120852973477</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="H43">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A43,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <f>[1]!i_techanal_stagelow_num($B$2,A43,252)</f>
+        <v>14</v>
+      </c>
+      <c r="J43" s="5">
+        <f>100/C43 - Sheet4!B43</f>
+        <v>1.8070189806513466</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B44" s="3">
+        <v>5777.7972</v>
+      </c>
+      <c r="C44" s="3">
+        <v>22.526399612426758</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1.7648999691009521</v>
+      </c>
+      <c r="E44" s="3">
+        <v>10293184500</v>
+      </c>
+      <c r="F44" s="3">
+        <v>109766358594</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.89019999999999999</v>
+      </c>
+      <c r="H44">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A44,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <f>[1]!i_techanal_stagelow_num($B$2,A44,252)</f>
+        <v>50</v>
+      </c>
+      <c r="J44" s="5">
+        <f>100/C44 - Sheet4!B44</f>
+        <v>1.8715358175531382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>45159</v>
+      </c>
+      <c r="B45" s="3">
+        <v>5710.7782999999999</v>
+      </c>
+      <c r="C45" s="3">
+        <v>22.342199325561523</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1.7417999505996704</v>
+      </c>
+      <c r="E45" s="3">
+        <v>9283569800</v>
+      </c>
+      <c r="F45" s="3">
+        <v>96691987126</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.80289999999999995</v>
+      </c>
+      <c r="H45">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A45,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f>[1]!i_techanal_stagelow_num($B$2,A45,252)</f>
+        <v>75</v>
+      </c>
+      <c r="J45" s="5">
+        <f>100/C45 - Sheet4!B45</f>
+        <v>1.9315351021240259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B46" s="3">
+        <v>5741.0605999999998</v>
+      </c>
+      <c r="C46" s="3">
+        <v>22.502599716186523</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1.7482000589370728</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10617519300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>120035178924</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="H46">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A46,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <f>[1]!i_techanal_stagelow_num($B$2,A46,252)</f>
+        <v>75</v>
+      </c>
+      <c r="J46" s="5">
+        <f>100/C46 - Sheet4!B46</f>
+        <v>1.8938309795866926</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>45161</v>
+      </c>
+      <c r="B47" s="3">
+        <v>5629.4998999999998</v>
+      </c>
+      <c r="C47" s="3">
+        <v>22.135000228881836</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1.7211999893188477</v>
+      </c>
+      <c r="E47" s="3">
+        <v>9418672500</v>
+      </c>
+      <c r="F47" s="3">
+        <v>101871329163</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.81410000000000005</v>
+      </c>
+      <c r="H47">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A47,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f>[1]!i_techanal_stagelow_num($B$2,A47,252)</f>
+        <v>118</v>
+      </c>
+      <c r="J47" s="5">
+        <f>100/C47 - Sheet4!B47</f>
+        <v>1.9626320517719988</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B48" s="3">
+        <v>5652.6728999999996</v>
+      </c>
+      <c r="C48" s="3">
+        <v>22.178800582885742</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1.723099946975708</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10808677100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>120640882888</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="H48">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A48,252)</f>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f>[1]!i_techanal_stagelow_num($B$2,A48,252)</f>
+        <v>50</v>
+      </c>
+      <c r="J48" s="5">
+        <f>100/C48 - Sheet4!B48</f>
+        <v>1.9540100966634295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B49" s="3">
+        <v>5581.2115999999996</v>
+      </c>
+      <c r="C49" s="3">
+        <v>22.003700256347656</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1.6993999481201172</v>
+      </c>
+      <c r="E49" s="3">
+        <v>10624160200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>114730298316</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="H49">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A49,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <f>[1]!i_techanal_stagelow_num($B$2,A49,252)</f>
+        <v>89</v>
+      </c>
+      <c r="J49" s="5">
+        <f>100/C49 - Sheet4!B49</f>
+        <v>1.9741901582451735</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B50" s="3">
+        <v>5644.1405000000004</v>
+      </c>
+      <c r="C50" s="3">
+        <v>22.343000411987305</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1.711899995803833</v>
+      </c>
+      <c r="E50" s="3">
+        <v>18574561900</v>
+      </c>
+      <c r="F50" s="3">
+        <v>181457042375</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1.6031</v>
+      </c>
+      <c r="H50">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A50,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <f>[1]!i_techanal_stagelow_num($B$2,A50,252)</f>
+        <v>31</v>
+      </c>
+      <c r="J50" s="5">
+        <f>100/C50 - Sheet4!B50</f>
+        <v>1.8878746254343137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>45167</v>
+      </c>
+      <c r="B51" s="3">
+        <v>5770.3154999999997</v>
+      </c>
+      <c r="C51" s="3">
+        <v>22.827400207519531</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1.7431000471115112</v>
+      </c>
+      <c r="E51" s="3">
+        <v>16085189500</v>
+      </c>
+      <c r="F51" s="3">
+        <v>165476278767</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1.3884000000000001</v>
+      </c>
+      <c r="H51">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A51,252)</f>
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <f>[1]!i_techanal_stagelow_num($B$2,A51,252)</f>
+        <v>2</v>
+      </c>
+      <c r="J51" s="5">
+        <f>100/C51 - Sheet4!B51</f>
+        <v>1.8107003465536642</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B52" s="3">
+        <v>5775.1534000000001</v>
+      </c>
+      <c r="C52" s="3">
+        <v>23.138799667358398</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1.7375999689102173</v>
+      </c>
+      <c r="E52" s="3">
+        <v>13600438400</v>
+      </c>
+      <c r="F52" s="3">
+        <v>145078565406</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1.1738999999999999</v>
+      </c>
+      <c r="H52">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A52,252)</f>
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <f>[1]!i_techanal_stagelow_num($B$2,A52,252)</f>
+        <v>5</v>
+      </c>
+      <c r="J52" s="5">
+        <f>100/C52 - Sheet4!B52</f>
+        <v>1.7592453557484529</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B53" s="3">
+        <v>5739.3984</v>
+      </c>
+      <c r="C53" s="3">
+        <v>23.623600006103516</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1.7211999893188477</v>
+      </c>
+      <c r="E53" s="3">
+        <v>11633513400</v>
+      </c>
+      <c r="F53" s="3">
+        <v>121252796161</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1.0043</v>
+      </c>
+      <c r="H53">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A53,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <f>[1]!i_techanal_stagelow_num($B$2,A53,252)</f>
+        <v>15</v>
+      </c>
+      <c r="J53" s="5">
+        <f>100/C53 - Sheet4!B53</f>
+        <v>1.6789550794190333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B54" s="3">
+        <v>5750.8027000000002</v>
+      </c>
+      <c r="C54" s="3">
+        <v>23.667699813842773</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1.7242000102996826</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10417910300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>107061408581</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="H54">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A54,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <f>[1]!i_techanal_stagelow_num($B$2,A54,252)</f>
+        <v>8</v>
+      </c>
+      <c r="J54" s="5">
+        <f>100/C54 - Sheet4!B54</f>
+        <v>1.6426676667587254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>45173</v>
+      </c>
+      <c r="B55" s="3">
+        <v>5829.7839999999997</v>
+      </c>
+      <c r="C55" s="3">
+        <v>23.974599838256836</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1.7465000152587891</v>
+      </c>
+      <c r="E55" s="3">
+        <v>13564887300</v>
+      </c>
+      <c r="F55" s="3">
+        <v>135994054181</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1.171</v>
+      </c>
+      <c r="H55">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A55,252)</f>
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <f>[1]!i_techanal_stagelow_num($B$2,A55,252)</f>
+        <v>1</v>
+      </c>
+      <c r="J55" s="5">
+        <f>100/C55 - Sheet4!B55</f>
+        <v>1.5585810889292775</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B56" s="3">
+        <v>5788.7148999999999</v>
+      </c>
+      <c r="C56" s="3">
+        <v>23.814899444580078</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1.7348999977111816</v>
+      </c>
+      <c r="E56" s="3">
+        <v>10651765800</v>
+      </c>
+      <c r="F56" s="3">
+        <v>114971726103</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="H56">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A56,252)</f>
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <f>[1]!i_techanal_stagelow_num($B$2,A56,252)</f>
+        <v>3</v>
+      </c>
+      <c r="J56" s="5">
+        <f>100/C56 - Sheet4!B56</f>
+        <v>1.5880519520231915</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>45175</v>
+      </c>
+      <c r="B57" s="3">
+        <v>5790.3806000000004</v>
+      </c>
+      <c r="C57" s="3">
+        <v>23.819000244140625</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1.7351000308990479</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9048050200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>106512753385</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0.78110000000000002</v>
+      </c>
+      <c r="H57">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A57,252)</f>
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <f>[1]!i_techanal_stagelow_num($B$2,A57,252)</f>
+        <v>4</v>
+      </c>
+      <c r="J57" s="5">
+        <f>100/C57 - Sheet4!B57</f>
+        <v>1.563329021999972</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B58" s="3">
+        <v>5702.7007999999996</v>
+      </c>
+      <c r="C58" s="3">
+        <v>23.482599258422852</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1.7106000185012817</v>
+      </c>
+      <c r="E58" s="3">
+        <v>9292051800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>105713167276</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="H58">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A58,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <f>[1]!i_techanal_stagelow_num($B$2,A58,252)</f>
+        <v>15</v>
+      </c>
+      <c r="J58" s="5">
+        <f>100/C58 - Sheet4!B58</f>
+        <v>1.6159723649845326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B59" s="3">
+        <v>5708.6226999999999</v>
+      </c>
+      <c r="C59" s="3">
+        <v>23.508600234985352</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1.7124999761581421</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7952002800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>93059123325</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0.68640000000000001</v>
+      </c>
+      <c r="H59">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A59,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <f>[1]!i_techanal_stagelow_num($B$2,A59,252)</f>
+        <v>17</v>
+      </c>
+      <c r="J59" s="5">
+        <f>100/C59 - Sheet4!B59</f>
+        <v>1.6162624103701688</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B60" s="3">
+        <v>5774.7304999999997</v>
+      </c>
+      <c r="C60" s="3">
+        <v>23.767200469970703</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1.7311999797821045</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11283713700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>132425678100</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0.9738</v>
+      </c>
+      <c r="H60">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A60,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <f>[1]!i_techanal_stagelow_num($B$2,A60,252)</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="5">
+        <f>100/C60 - Sheet4!B60</f>
+        <v>4.2074791318543232</v>
       </c>
     </row>
   </sheetData>
@@ -2624,8 +4719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E965FD-9AE0-4478-8833-F344FEC72F94}">
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="W60" sqref="W60"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2705,7 +4800,7 @@
         <v>45103</v>
       </c>
       <c r="B5" s="3">
-        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=26")</f>
+        <f>[1]!WSD(B2,B4:G4,"2023-06-25","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=6;rows=56")</f>
         <v>3809.6961999999999</v>
       </c>
       <c r="C5" s="3">
@@ -2852,7 +4947,7 @@
         <v>11.68179988861084</v>
       </c>
       <c r="D9" s="3">
-        <v>1.3365000486373901</v>
+        <v>1.3363000154495239</v>
       </c>
       <c r="E9" s="3">
         <v>10126842900</v>
@@ -3612,304 +5707,1054 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="J31" s="4"/>
+      <c r="A31" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3998.0010000000002</v>
+      </c>
+      <c r="C31" s="3">
+        <v>12.073399543762207</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1.4111000299453735</v>
+      </c>
+      <c r="E31" s="3">
+        <v>14228685900</v>
+      </c>
+      <c r="F31" s="3">
+        <v>255620773600</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.4667</v>
+      </c>
+      <c r="H31">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A31,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <f>[1]!i_techanal_stagelow_num($B$2,A31,252)</f>
+        <v>2</v>
+      </c>
+      <c r="J31" s="4">
+        <f>100/C31 - Sheet4!B31</f>
+        <v>5.6281713087338829</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="J32" s="4"/>
+      <c r="A32" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3969.895</v>
+      </c>
+      <c r="C32" s="3">
+        <v>11.937999725341797</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1.3954000473022461</v>
+      </c>
+      <c r="E32" s="3">
+        <v>12585569000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>204875690924</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.4128</v>
+      </c>
+      <c r="H32">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A32,252)</f>
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <f>[1]!i_techanal_stagelow_num($B$2,A32,252)</f>
+        <v>3</v>
+      </c>
+      <c r="J32" s="4">
+        <f>100/C32 - Sheet4!B32</f>
+        <v>5.7244126906270214</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="J33" s="4"/>
+      <c r="A33" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4004.9839000000002</v>
+      </c>
+      <c r="C33" s="3">
+        <v>12.019800186157227</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1.4062000513076782</v>
+      </c>
+      <c r="E33" s="3">
+        <v>12900664000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>224809824820</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.42320000000000002</v>
+      </c>
+      <c r="H33">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A33,252)</f>
+        <v>16</v>
+      </c>
+      <c r="I33">
+        <f>[1]!i_techanal_stagelow_num($B$2,A33,252)</f>
+        <v>1</v>
+      </c>
+      <c r="J33" s="4">
+        <f>100/C33 - Sheet4!B33</f>
+        <v>5.6746058546103306</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="J34" s="4"/>
+      <c r="A34" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B34" s="3">
+        <v>4020.5792000000001</v>
+      </c>
+      <c r="C34" s="3">
+        <v>12.092700004577637</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1.413599967956543</v>
+      </c>
+      <c r="E34" s="3">
+        <v>17826718900</v>
+      </c>
+      <c r="F34" s="3">
+        <v>316529733838</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.5847</v>
+      </c>
+      <c r="H34">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A34,252)</f>
+        <v>14</v>
+      </c>
+      <c r="I34">
+        <f>[1]!i_techanal_stagelow_num($B$2,A34,252)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <f>100/C34 - Sheet4!B34</f>
+        <v>5.6212518149086188</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="J35" s="4"/>
+      <c r="A35" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B35" s="3">
+        <v>3990.1531</v>
+      </c>
+      <c r="C35" s="3">
+        <v>12.008999824523926</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1.4038000106811523</v>
+      </c>
+      <c r="E35" s="3">
+        <v>12131066200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>227090572751</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.39789999999999998</v>
+      </c>
+      <c r="H35">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A35,252)</f>
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <f>[1]!i_techanal_stagelow_num($B$2,A35,252)</f>
+        <v>3</v>
+      </c>
+      <c r="J35" s="4">
+        <f>100/C35 - Sheet4!B35</f>
+        <v>5.6804881389961484</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="J36" s="4"/>
+      <c r="A36" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B36" s="3">
+        <v>3979.7321999999999</v>
+      </c>
+      <c r="C36" s="3">
+        <v>11.988300323486328</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1.4009000062942505</v>
+      </c>
+      <c r="E36" s="3">
+        <v>10987169900</v>
+      </c>
+      <c r="F36" s="3">
+        <v>202611335314</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.3604</v>
+      </c>
+      <c r="H36">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A36,252)</f>
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <f>[1]!i_techanal_stagelow_num($B$2,A36,252)</f>
+        <v>3</v>
+      </c>
+      <c r="J36" s="4">
+        <f>100/C36 - Sheet4!B36</f>
+        <v>5.6935660378577264</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="J37" s="4"/>
+      <c r="A37" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B37" s="3">
+        <v>3967.5652</v>
+      </c>
+      <c r="C37" s="3">
+        <v>11.94849967956543</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1.3967000246047974</v>
+      </c>
+      <c r="E37" s="3">
+        <v>9464026900</v>
+      </c>
+      <c r="F37" s="3">
+        <v>174394242765</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.31040000000000001</v>
+      </c>
+      <c r="H37">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A37,252)</f>
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <f>[1]!i_techanal_stagelow_num($B$2,A37,252)</f>
+        <v>4</v>
+      </c>
+      <c r="J37" s="4">
+        <f>100/C37 - Sheet4!B37</f>
+        <v>5.7220515949112887</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="J38" s="4"/>
+      <c r="A38" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B38" s="3">
+        <v>3975.7166000000002</v>
+      </c>
+      <c r="C38" s="3">
+        <v>11.988900184631348</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1.4005999565124512</v>
+      </c>
+      <c r="E38" s="3">
+        <v>9717684900</v>
+      </c>
+      <c r="F38" s="3">
+        <v>175646730198</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="H38">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A38,252)</f>
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <f>[1]!i_techanal_stagelow_num($B$2,A38,252)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <f>100/C38 - Sheet4!B38</f>
+        <v>5.6914486750228086</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="J39" s="4"/>
+      <c r="A39" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B39" s="3">
+        <v>3884.2538</v>
+      </c>
+      <c r="C39" s="3">
+        <v>11.732500076293945</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1.3703000545501709</v>
+      </c>
+      <c r="E39" s="3">
+        <v>12608293100</v>
+      </c>
+      <c r="F39" s="3">
+        <v>203546314647</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.41349999999999998</v>
+      </c>
+      <c r="H39">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A39,252)</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f>[1]!i_techanal_stagelow_num($B$2,A39,252)</f>
+        <v>4</v>
+      </c>
+      <c r="J39" s="4">
+        <f>100/C39 - Sheet4!B39</f>
+        <v>5.8755325676302004</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="J40" s="4"/>
+      <c r="A40" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B40" s="3">
+        <v>3855.9061000000002</v>
+      </c>
+      <c r="C40" s="3">
+        <v>11.656100273132324</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1.3607000112533569</v>
+      </c>
+      <c r="E40" s="3">
+        <v>11596633600</v>
+      </c>
+      <c r="F40" s="3">
+        <v>197623765246</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.38030000000000003</v>
+      </c>
+      <c r="H40">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A40,252)</f>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f>[1]!i_techanal_stagelow_num($B$2,A40,252)</f>
+        <v>14</v>
+      </c>
+      <c r="J40" s="4">
+        <f>100/C40 - Sheet4!B40</f>
+        <v>5.9534986733764743</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="J41" s="4"/>
+      <c r="A41" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B41" s="3">
+        <v>3846.5356999999999</v>
+      </c>
+      <c r="C41" s="3">
+        <v>11.670900344848633</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1.3621000051498413</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10309711100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>177437071693</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.33810000000000001</v>
+      </c>
+      <c r="H41">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A41,252)</f>
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <f>[1]!i_techanal_stagelow_num($B$2,A41,252)</f>
+        <v>23</v>
+      </c>
+      <c r="J41" s="4">
+        <f>100/C41 - Sheet4!B41</f>
+        <v>5.9928192423229429</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="J42" s="4"/>
+      <c r="A42" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B42" s="3">
+        <v>3818.3337999999999</v>
+      </c>
+      <c r="C42" s="3">
+        <v>11.575699806213379</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1.3509000539779663</v>
+      </c>
+      <c r="E42" s="3">
+        <v>9461694600</v>
+      </c>
+      <c r="F42" s="3">
+        <v>169323869028</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.31019999999999998</v>
+      </c>
+      <c r="H42">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A42,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <f>[1]!i_techanal_stagelow_num($B$2,A42,252)</f>
+        <v>27</v>
+      </c>
+      <c r="J42" s="4">
+        <f>100/C42 - Sheet4!B42</f>
+        <v>6.076686567903562</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="J43" s="4"/>
+      <c r="A43" s="2">
+        <v>45155</v>
+      </c>
+      <c r="B43" s="3">
+        <v>3831.1008000000002</v>
+      </c>
+      <c r="C43" s="3">
+        <v>11.593400001525879</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1.3531999588012695</v>
+      </c>
+      <c r="E43" s="3">
+        <v>9841549300</v>
+      </c>
+      <c r="F43" s="3">
+        <v>174093848243</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.32269999999999999</v>
+      </c>
+      <c r="H43">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A43,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <f>[1]!i_techanal_stagelow_num($B$2,A43,252)</f>
+        <v>10</v>
+      </c>
+      <c r="J43" s="4">
+        <f>100/C43 - Sheet4!B43</f>
+        <v>6.0555973214793219</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="J44" s="4"/>
+      <c r="A44" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B44" s="3">
+        <v>3784.0038</v>
+      </c>
+      <c r="C44" s="3">
+        <v>11.491299629211426</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1.3403999805450439</v>
+      </c>
+      <c r="E44" s="3">
+        <v>9554963800</v>
+      </c>
+      <c r="F44" s="3">
+        <v>168445686988</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.31330000000000002</v>
+      </c>
+      <c r="H44">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A44,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <f>[1]!i_techanal_stagelow_num($B$2,A44,252)</f>
+        <v>29</v>
+      </c>
+      <c r="J44" s="4">
+        <f>100/C44 - Sheet4!B44</f>
+        <v>6.1345358851208864</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="J45" s="4"/>
+      <c r="A45" s="2">
+        <v>45159</v>
+      </c>
+      <c r="B45" s="3">
+        <v>3729.5549999999998</v>
+      </c>
+      <c r="C45" s="3">
+        <v>11.351200103759766</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1.3234000205993652</v>
+      </c>
+      <c r="E45" s="3">
+        <v>9870836900</v>
+      </c>
+      <c r="F45" s="3">
+        <v>173379942907</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="H45">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A45,252)</f>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f>[1]!i_techanal_stagelow_num($B$2,A45,252)</f>
+        <v>42</v>
+      </c>
+      <c r="J45" s="4">
+        <f>100/C45 - Sheet4!B45</f>
+        <v>6.2653411908797043</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="J46" s="4"/>
+      <c r="A46" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B46" s="3">
+        <v>3758.2271000000001</v>
+      </c>
+      <c r="C46" s="3">
+        <v>11.48900032043457</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1.3380999565124512</v>
+      </c>
+      <c r="E46" s="3">
+        <v>12031832700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>203463879672</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.39450000000000002</v>
+      </c>
+      <c r="H46">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A46,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <f>[1]!i_techanal_stagelow_num($B$2,A46,252)</f>
+        <v>33</v>
+      </c>
+      <c r="J46" s="4">
+        <f>100/C46 - Sheet4!B46</f>
+        <v>6.153877475058291</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="J47" s="4"/>
+      <c r="A47" s="2">
+        <v>45161</v>
+      </c>
+      <c r="B47" s="3">
+        <v>3696.6338999999998</v>
+      </c>
+      <c r="C47" s="3">
+        <v>11.35099983215332</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1.3212000131607056</v>
+      </c>
+      <c r="E47" s="3">
+        <v>9708163800</v>
+      </c>
+      <c r="F47" s="3">
+        <v>160476231587</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.31830000000000003</v>
+      </c>
+      <c r="H47">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A47,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f>[1]!i_techanal_stagelow_num($B$2,A47,252)</f>
+        <v>54</v>
+      </c>
+      <c r="J47" s="4">
+        <f>100/C47 - Sheet4!B47</f>
+        <v>6.2546966239710269</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="J48" s="4"/>
+      <c r="A48" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B48" s="3">
+        <v>3723.4292999999998</v>
+      </c>
+      <c r="C48" s="3">
+        <v>11.392900466918945</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1.323699951171875</v>
+      </c>
+      <c r="E48" s="3">
+        <v>11961452100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>196257391084</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.39219999999999999</v>
+      </c>
+      <c r="H48">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A48,252)</f>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f>[1]!i_techanal_stagelow_num($B$2,A48,252)</f>
+        <v>18</v>
+      </c>
+      <c r="J48" s="4">
+        <f>100/C48 - Sheet4!B48</f>
+        <v>6.2225960889385039</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="J49" s="4"/>
+      <c r="A49" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B49" s="3">
+        <v>3709.1516999999999</v>
+      </c>
+      <c r="C49" s="3">
+        <v>11.360400199890137</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1.3188999891281128</v>
+      </c>
+      <c r="E49" s="3">
+        <v>10518261000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>175601437173</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.34489999999999998</v>
+      </c>
+      <c r="H49">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A49,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <f>[1]!i_techanal_stagelow_num($B$2,A49,252)</f>
+        <v>32</v>
+      </c>
+      <c r="J49" s="4">
+        <f>100/C49 - Sheet4!B49</f>
+        <v>6.2320067990973653</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="J50" s="4"/>
+      <c r="A50" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B50" s="3">
+        <v>3752.6194</v>
+      </c>
+      <c r="C50" s="3">
+        <v>11.580599784851074</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1.3293000459671021</v>
+      </c>
+      <c r="E50" s="3">
+        <v>19799037900</v>
+      </c>
+      <c r="F50" s="3">
+        <v>335047670967</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.6492</v>
+      </c>
+      <c r="H50">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A50,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <f>[1]!i_techanal_stagelow_num($B$2,A50,252)</f>
+        <v>14</v>
+      </c>
+      <c r="J50" s="4">
+        <f>100/C50 - Sheet4!B50</f>
+        <v>6.0473313280692906</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="J51" s="4"/>
+      <c r="A51" s="2">
+        <v>45167</v>
+      </c>
+      <c r="B51" s="3">
+        <v>3790.1066999999998</v>
+      </c>
+      <c r="C51" s="3">
+        <v>11.625499725341797</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1.3344000577926636</v>
+      </c>
+      <c r="E51" s="3">
+        <v>15248614600</v>
+      </c>
+      <c r="F51" s="3">
+        <v>262134936751</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.49940000000000001</v>
+      </c>
+      <c r="H51">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A51,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <f>[1]!i_techanal_stagelow_num($B$2,A51,252)</f>
+        <v>3</v>
+      </c>
+      <c r="J51" s="4">
+        <f>100/C51 - Sheet4!B51</f>
+        <v>6.0317807717990313</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="J52" s="4"/>
+      <c r="A52" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B52" s="3">
+        <v>3788.5097000000001</v>
+      </c>
+      <c r="C52" s="3">
+        <v>11.695899963378906</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1.3255000114440918</v>
+      </c>
+      <c r="E52" s="3">
+        <v>12967166100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>226727480839</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0.42470000000000002</v>
+      </c>
+      <c r="H52">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A52,252)</f>
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <f>[1]!i_techanal_stagelow_num($B$2,A52,252)</f>
+        <v>8</v>
+      </c>
+      <c r="J52" s="4">
+        <f>100/C52 - Sheet4!B52</f>
+        <v>5.9875047292735513</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="J53" s="4"/>
+      <c r="A53" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B53" s="3">
+        <v>3765.2678000000001</v>
+      </c>
+      <c r="C53" s="3">
+        <v>11.652999877929688</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1.3061000108718872</v>
+      </c>
+      <c r="E53" s="3">
+        <v>11896164600</v>
+      </c>
+      <c r="F53" s="3">
+        <v>193577001342</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.3896</v>
+      </c>
+      <c r="H53">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A53,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <f>[1]!i_techanal_stagelow_num($B$2,A53,252)</f>
+        <v>9</v>
+      </c>
+      <c r="J53" s="4">
+        <f>100/C53 - Sheet4!B53</f>
+        <v>6.0273812535436448</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="J54" s="4"/>
+      <c r="A54" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B54" s="3">
+        <v>3791.4911999999999</v>
+      </c>
+      <c r="C54" s="3">
+        <v>11.708499908447266</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1.3128999471664429</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10531904500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>172219141586</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.34489999999999998</v>
+      </c>
+      <c r="H54">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A54,252)</f>
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <f>[1]!i_techanal_stagelow_num($B$2,A54,252)</f>
+        <v>5</v>
+      </c>
+      <c r="J54" s="4">
+        <f>100/C54 - Sheet4!B54</f>
+        <v>5.9583037564106363</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="J55" s="4"/>
+      <c r="A55" s="2">
+        <v>45173</v>
+      </c>
+      <c r="B55" s="3">
+        <v>3848.9517000000001</v>
+      </c>
+      <c r="C55" s="3">
+        <v>11.887100219726563</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1.3329999446868896</v>
+      </c>
+      <c r="E55" s="3">
+        <v>14238520100</v>
+      </c>
+      <c r="F55" s="3">
+        <v>237934727924</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.46629999999999999</v>
+      </c>
+      <c r="H55">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A55,252)</f>
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <f>[1]!i_techanal_stagelow_num($B$2,A55,252)</f>
+        <v>1</v>
+      </c>
+      <c r="J55" s="4">
+        <f>100/C55 - Sheet4!B55</f>
+        <v>5.7999806009501524</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="J56" s="4"/>
+      <c r="A56" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B56" s="3">
+        <v>3820.3173999999999</v>
+      </c>
+      <c r="C56" s="3">
+        <v>11.79419994354248</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1.3224999904632568</v>
+      </c>
+      <c r="E56" s="3">
+        <v>10405233300</v>
+      </c>
+      <c r="F56" s="3">
+        <v>181377877955</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="H56">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A56,252)</f>
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <f>[1]!i_techanal_stagelow_num($B$2,A56,252)</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <f>100/C56 - Sheet4!B56</f>
+        <v>5.8677438299069742</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="J57" s="4"/>
+      <c r="A57" s="2">
+        <v>45175</v>
+      </c>
+      <c r="B57" s="3">
+        <v>3812.0282999999999</v>
+      </c>
+      <c r="C57" s="3">
+        <v>11.779800415039063</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1.3208999633789063</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9344239300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>166081524007</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="H57">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A57,252)</f>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f>[1]!i_techanal_stagelow_num($B$2,A57,252)</f>
+        <v>6</v>
+      </c>
+      <c r="J57" s="4">
+        <f>100/C57 - Sheet4!B57</f>
+        <v>5.8541081747303441</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="J58" s="4"/>
+      <c r="A58" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B58" s="3">
+        <v>3758.4748</v>
+      </c>
+      <c r="C58" s="3">
+        <v>11.658699989318848</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1.3072999715805054</v>
+      </c>
+      <c r="E58" s="3">
+        <v>9510390300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>164405748828</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0.3115</v>
+      </c>
+      <c r="H58">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A58,252)</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f>[1]!i_techanal_stagelow_num($B$2,A58,252)</f>
+        <v>21</v>
+      </c>
+      <c r="J58" s="4">
+        <f>100/C58 - Sheet4!B58</f>
+        <v>5.9347856400469432</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="J59" s="4"/>
+      <c r="A59" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B59" s="3">
+        <v>3739.9926999999998</v>
+      </c>
+      <c r="C59" s="3">
+        <v>11.614299774169922</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1.302299976348877</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7163816600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>129197657303</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0.2346</v>
+      </c>
+      <c r="H59">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A59,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <f>[1]!i_techanal_stagelow_num($B$2,A59,252)</f>
+        <v>22</v>
+      </c>
+      <c r="J59" s="4">
+        <f>100/C59 - Sheet4!B59</f>
+        <v>5.972575677777745</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="J60" s="4"/>
+      <c r="A60" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B60" s="3">
+        <v>3767.5369999999998</v>
+      </c>
+      <c r="C60" s="3">
+        <v>11.687000274658203</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1.3106000423431396</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10535801600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>186871759400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="H60">
+        <f>[1]!i_techanal_stagehigh_num($B$2,A60,252)</f>
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <f>[1]!i_techanal_stagelow_num($B$2,A60,252)</f>
+        <v>4</v>
+      </c>
+      <c r="J60" s="4">
+        <f>100/C60 - Sheet4!B60</f>
+        <v>8.5565155856834778</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
@@ -4662,8 +7507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970FA557-24E3-4030-9B4A-77A730703550}">
   <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4703,7 +7548,7 @@
         <v>45103</v>
       </c>
       <c r="B5" s="3">
-        <f>[1]!WSD(B4,B2:B2,"2023-06-25","","TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=1;rows=26")</f>
+        <f>[1]!WSD(B4,B2:B2,"2023-06-25","","TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=1;rows=55")</f>
         <v>2.6638000000000002</v>
       </c>
     </row>
@@ -4908,120 +7753,236 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2.6545000000000001</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2.6522000000000001</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2.645</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2.6482000000000001</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2.6465999999999998</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2.6478999999999999</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2.6472000000000002</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2.6496</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2.6478000000000002</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2.6257000000000001</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
+      <c r="A41" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2.5754999999999999</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2.5621</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="2">
+        <v>45155</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2.57</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2.5676999999999999</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3"/>
+      <c r="A45" s="2">
+        <v>45159</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2.5442999999999998</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3"/>
+      <c r="A46" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2.5501</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
+      <c r="A47" s="2">
+        <v>45161</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2.5550999999999999</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
+      <c r="A48" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2.5548000000000002</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3"/>
+      <c r="A49" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2.5705</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2.5878000000000001</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
+      <c r="A51" s="2">
+        <v>45167</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2.57</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
+      <c r="A52" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2.5625</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3"/>
+      <c r="A53" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2.5541</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3"/>
+      <c r="A54" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2.5825</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="3"/>
+      <c r="A55" s="2">
+        <v>45173</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2.6124999999999998</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="3"/>
+      <c r="A56" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2.6110000000000002</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="3"/>
+      <c r="A57" s="2">
+        <v>45175</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2.6349999999999998</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="3"/>
+      <c r="A58" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2.6425000000000001</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="3"/>
+      <c r="A59" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2.6375000000000002</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
